--- a/data/pca/factorExposure/factorExposure_2017-02-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01963389601271892</v>
+        <v>0.01106996914350405</v>
       </c>
       <c r="C2">
-        <v>0.01642343706130589</v>
+        <v>-0.0403018643761521</v>
       </c>
       <c r="D2">
-        <v>0.03428359101775348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03148778375366999</v>
+      </c>
+      <c r="E2">
+        <v>-0.05093491805439171</v>
+      </c>
+      <c r="F2">
+        <v>-0.004283028997139367</v>
+      </c>
+      <c r="G2">
+        <v>-0.1141854957818146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04785973852112172</v>
+        <v>0.03893672328050078</v>
       </c>
       <c r="C3">
-        <v>-0.01389145460410224</v>
+        <v>-0.0998876173011725</v>
       </c>
       <c r="D3">
-        <v>0.1048900589192539</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01814106612788152</v>
+      </c>
+      <c r="E3">
+        <v>-0.09846441017851573</v>
+      </c>
+      <c r="F3">
+        <v>-0.01853914416260292</v>
+      </c>
+      <c r="G3">
+        <v>-0.131375182048425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0420333408264333</v>
+        <v>0.05517751473628964</v>
       </c>
       <c r="C4">
-        <v>0.003756799515063631</v>
+        <v>-0.06659963434762149</v>
       </c>
       <c r="D4">
-        <v>0.06907451056405797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02550562909121538</v>
+      </c>
+      <c r="E4">
+        <v>-0.04086006947334415</v>
+      </c>
+      <c r="F4">
+        <v>-0.002053542202356887</v>
+      </c>
+      <c r="G4">
+        <v>-0.1033053974453446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01298126997789136</v>
+        <v>0.03448838292454696</v>
       </c>
       <c r="C6">
-        <v>0.007277277974312507</v>
+        <v>-0.05169548691356346</v>
       </c>
       <c r="D6">
-        <v>0.05541169778214794</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01841348419745881</v>
+      </c>
+      <c r="E6">
+        <v>-0.0468466679347781</v>
+      </c>
+      <c r="F6">
+        <v>-0.002873746295454728</v>
+      </c>
+      <c r="G6">
+        <v>-0.08652356667623283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.005320462436645429</v>
+        <v>0.02067212856039567</v>
       </c>
       <c r="C7">
-        <v>0.008227463492259269</v>
+        <v>-0.03804470472647691</v>
       </c>
       <c r="D7">
-        <v>0.03123918786225963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01489605535732486</v>
+      </c>
+      <c r="E7">
+        <v>-0.01847529045236729</v>
+      </c>
+      <c r="F7">
+        <v>0.003337040786049935</v>
+      </c>
+      <c r="G7">
+        <v>-0.1266234893031492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.001324781386649388</v>
+        <v>0.003760173668491266</v>
       </c>
       <c r="C8">
-        <v>0.001417643588881359</v>
+        <v>-0.02391176978469623</v>
       </c>
       <c r="D8">
-        <v>-0.004576635468945454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004094500034390257</v>
+      </c>
+      <c r="E8">
+        <v>-0.03117858737780856</v>
+      </c>
+      <c r="F8">
+        <v>-0.002100538560145171</v>
+      </c>
+      <c r="G8">
+        <v>-0.06791756096756134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01513842477998006</v>
+        <v>0.03285043998316808</v>
       </c>
       <c r="C9">
-        <v>0.006201556167232974</v>
+        <v>-0.04828032292797749</v>
       </c>
       <c r="D9">
-        <v>0.04253314956610574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01676955043255759</v>
+      </c>
+      <c r="E9">
+        <v>-0.02720270164282187</v>
+      </c>
+      <c r="F9">
+        <v>0.0002453490695563823</v>
+      </c>
+      <c r="G9">
+        <v>-0.1046079941388521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1228834058628416</v>
+        <v>0.09948623361856263</v>
       </c>
       <c r="C10">
-        <v>-0.03497405603354873</v>
+        <v>0.183237550505996</v>
       </c>
       <c r="D10">
-        <v>-0.1727932859414452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01571351754650893</v>
+      </c>
+      <c r="E10">
+        <v>-0.02003240371556696</v>
+      </c>
+      <c r="F10">
+        <v>-0.02329534480002127</v>
+      </c>
+      <c r="G10">
+        <v>-0.05363668979537668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.01665979422248449</v>
+        <v>0.03519913104508807</v>
       </c>
       <c r="C11">
-        <v>-0.008013881952450803</v>
+        <v>-0.05171512637367189</v>
       </c>
       <c r="D11">
-        <v>0.04651422292850919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002834243540291425</v>
+      </c>
+      <c r="E11">
+        <v>-0.02170218764698708</v>
+      </c>
+      <c r="F11">
+        <v>0.0153354504971735</v>
+      </c>
+      <c r="G11">
+        <v>-0.08709260698064644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.01909179368021687</v>
+        <v>0.03746242134402708</v>
       </c>
       <c r="C12">
-        <v>-0.003257391538573744</v>
+        <v>-0.04646500989430056</v>
       </c>
       <c r="D12">
-        <v>0.04238226218757919</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.00686976097869615</v>
+      </c>
+      <c r="E12">
+        <v>-0.01140987907673418</v>
+      </c>
+      <c r="F12">
+        <v>0.002477695900681491</v>
+      </c>
+      <c r="G12">
+        <v>-0.08269182106551359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01214367046011882</v>
+        <v>0.01277031471452114</v>
       </c>
       <c r="C13">
-        <v>0.01679214128799204</v>
+        <v>-0.03994016519503137</v>
       </c>
       <c r="D13">
-        <v>0.02593766311448625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02821373835889378</v>
+      </c>
+      <c r="E13">
+        <v>-0.05132220711658461</v>
+      </c>
+      <c r="F13">
+        <v>-0.01195264289837169</v>
+      </c>
+      <c r="G13">
+        <v>-0.1442064015476408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.002436563797483067</v>
+        <v>0.009964171677382465</v>
       </c>
       <c r="C14">
-        <v>0.005597824822501323</v>
+        <v>-0.02727603839497035</v>
       </c>
       <c r="D14">
-        <v>0.01980159424647868</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01077624902498952</v>
+      </c>
+      <c r="E14">
+        <v>-0.01304987594144945</v>
+      </c>
+      <c r="F14">
+        <v>-0.006512674408341775</v>
+      </c>
+      <c r="G14">
+        <v>-0.1136972829431742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.01545743233730855</v>
+        <v>0.03382169241251916</v>
       </c>
       <c r="C16">
-        <v>-0.006820709047270944</v>
+        <v>-0.04494989742098136</v>
       </c>
       <c r="D16">
-        <v>0.03538049051730887</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002337008543936344</v>
+      </c>
+      <c r="E16">
+        <v>-0.01790566212111432</v>
+      </c>
+      <c r="F16">
+        <v>-0.004415257257672973</v>
+      </c>
+      <c r="G16">
+        <v>-0.09095727911430032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01850882809990194</v>
+        <v>0.02085742605058688</v>
       </c>
       <c r="C19">
-        <v>0.0040987755153055</v>
+        <v>-0.0474290837598385</v>
       </c>
       <c r="D19">
-        <v>0.0470072943874807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02062824837285722</v>
+      </c>
+      <c r="E19">
+        <v>-0.08837410748545303</v>
+      </c>
+      <c r="F19">
+        <v>-0.003939300898632164</v>
+      </c>
+      <c r="G19">
+        <v>-0.1428864761327859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.005463615679146302</v>
+        <v>0.01487173836224645</v>
       </c>
       <c r="C20">
-        <v>0.007457380830535189</v>
+        <v>-0.04101017727699167</v>
       </c>
       <c r="D20">
-        <v>0.02887358582464726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01525979461985488</v>
+      </c>
+      <c r="E20">
+        <v>-0.04208567911353021</v>
+      </c>
+      <c r="F20">
+        <v>-0.02357527511773545</v>
+      </c>
+      <c r="G20">
+        <v>-0.1153922835884663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.001847286525513031</v>
+        <v>0.009683915027290508</v>
       </c>
       <c r="C21">
-        <v>0.01235477682255022</v>
+        <v>-0.03725401949758822</v>
       </c>
       <c r="D21">
-        <v>0.01627491414279265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02016397674743214</v>
+      </c>
+      <c r="E21">
+        <v>-0.05118422769460214</v>
+      </c>
+      <c r="F21">
+        <v>-0.01213598995264421</v>
+      </c>
+      <c r="G21">
+        <v>-0.1434738760408638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001112927568787612</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006855741869848046</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002315608576689885</v>
+      </c>
+      <c r="E22">
+        <v>-0.01804926264975321</v>
+      </c>
+      <c r="F22">
+        <v>0.005940378164440604</v>
+      </c>
+      <c r="G22">
+        <v>-0.005057348098836434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001122564709330077</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006822871781776242</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002311446433924159</v>
+      </c>
+      <c r="E23">
+        <v>-0.01806368106459598</v>
+      </c>
+      <c r="F23">
+        <v>0.005731183260819795</v>
+      </c>
+      <c r="G23">
+        <v>-0.004897293626191629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.009192230105136791</v>
+        <v>0.02918549329897522</v>
       </c>
       <c r="C24">
-        <v>-0.0002695556784910819</v>
+        <v>-0.04832218409467694</v>
       </c>
       <c r="D24">
-        <v>0.04033873283301343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007490938840825196</v>
+      </c>
+      <c r="E24">
+        <v>-0.01693994536215236</v>
+      </c>
+      <c r="F24">
+        <v>0.006951374940037919</v>
+      </c>
+      <c r="G24">
+        <v>-0.09061103691326222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0256741184445126</v>
+        <v>0.04229975114379306</v>
       </c>
       <c r="C25">
-        <v>-0.001132584993048377</v>
+        <v>-0.05613900806455063</v>
       </c>
       <c r="D25">
-        <v>0.05182366118819266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01158861287112276</v>
+      </c>
+      <c r="E25">
+        <v>-0.008175466610928417</v>
+      </c>
+      <c r="F25">
+        <v>0.004783626647941721</v>
+      </c>
+      <c r="G25">
+        <v>-0.09737820620910803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.00460461508366658</v>
+        <v>0.01460594578397132</v>
       </c>
       <c r="C26">
-        <v>0.02186146219982032</v>
+        <v>-0.01128622815712054</v>
       </c>
       <c r="D26">
-        <v>0.001148361819020497</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02422000343996038</v>
+      </c>
+      <c r="E26">
+        <v>-0.008542587788864242</v>
+      </c>
+      <c r="F26">
+        <v>-0.006602567502716979</v>
+      </c>
+      <c r="G26">
+        <v>-0.08459543804843195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1622252566480054</v>
+        <v>0.1292840810455428</v>
       </c>
       <c r="C28">
-        <v>-0.03209098194185808</v>
+        <v>0.242509719619168</v>
       </c>
       <c r="D28">
-        <v>-0.2080844785641077</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.00719218761158149</v>
+      </c>
+      <c r="E28">
+        <v>-0.00205015220349771</v>
+      </c>
+      <c r="F28">
+        <v>-0.0214797592075941</v>
+      </c>
+      <c r="G28">
+        <v>-0.04849874885187976</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00906763736348342</v>
+        <v>0.00939824202154264</v>
       </c>
       <c r="C29">
-        <v>0.003084929285931814</v>
+        <v>-0.02303311656687866</v>
       </c>
       <c r="D29">
-        <v>0.01597700772705836</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009625303843212033</v>
+      </c>
+      <c r="E29">
+        <v>-0.00573415935356743</v>
+      </c>
+      <c r="F29">
+        <v>-0.012126787608221</v>
+      </c>
+      <c r="G29">
+        <v>-0.1030020828636091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03014465801749094</v>
+        <v>0.03947751024777897</v>
       </c>
       <c r="C30">
-        <v>0.008674746370917859</v>
+        <v>-0.06647677656523421</v>
       </c>
       <c r="D30">
-        <v>0.09088090262473544</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03030780678232379</v>
+      </c>
+      <c r="E30">
+        <v>-0.0701695913838236</v>
+      </c>
+      <c r="F30">
+        <v>0.02311297687666635</v>
+      </c>
+      <c r="G30">
+        <v>-0.1296749113853088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.0266497052409609</v>
+        <v>0.05352324979209717</v>
       </c>
       <c r="C31">
-        <v>-0.005387293165052987</v>
+        <v>-0.04011841847232858</v>
       </c>
       <c r="D31">
-        <v>0.01812515232359316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003952613582892607</v>
+      </c>
+      <c r="E31">
+        <v>0.00292619369220701</v>
+      </c>
+      <c r="F31">
+        <v>-0.03641069013769467</v>
+      </c>
+      <c r="G31">
+        <v>-0.09825067704347153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.01421500619432811</v>
+        <v>0.001954763294771501</v>
       </c>
       <c r="C32">
-        <v>-0.01411143581164253</v>
+        <v>-0.02234294871570752</v>
       </c>
       <c r="D32">
-        <v>0.02231322692899759</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.001748700529845224</v>
+      </c>
+      <c r="E32">
+        <v>-0.0461878039517979</v>
+      </c>
+      <c r="F32">
+        <v>0.03160645900247721</v>
+      </c>
+      <c r="G32">
+        <v>-0.0821579643545811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01658787791266901</v>
+        <v>0.02743558308887178</v>
       </c>
       <c r="C33">
-        <v>0.003254552480740749</v>
+        <v>-0.04933599426609246</v>
       </c>
       <c r="D33">
-        <v>0.04574919671106132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01727115622058262</v>
+      </c>
+      <c r="E33">
+        <v>-0.05556812964243079</v>
+      </c>
+      <c r="F33">
+        <v>0.006131697555873224</v>
+      </c>
+      <c r="G33">
+        <v>-0.1620472643581113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.02922414439452113</v>
+        <v>0.04099597061905787</v>
       </c>
       <c r="C34">
-        <v>-0.01920462218999458</v>
+        <v>-0.0588471611895966</v>
       </c>
       <c r="D34">
-        <v>0.04709551998740354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004051964762502263</v>
+      </c>
+      <c r="E34">
+        <v>-0.01385844384222941</v>
+      </c>
+      <c r="F34">
+        <v>0.01808892819636703</v>
+      </c>
+      <c r="G34">
+        <v>-0.09118691964226093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.006168032606300144</v>
+        <v>0.01608601802290856</v>
       </c>
       <c r="C36">
-        <v>0.009394483089148314</v>
+        <v>-0.009874263449335041</v>
       </c>
       <c r="D36">
-        <v>-0.002836620989846759</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01295402503861378</v>
+      </c>
+      <c r="E36">
+        <v>-0.01057045560461015</v>
+      </c>
+      <c r="F36">
+        <v>-0.009079197475936234</v>
+      </c>
+      <c r="G36">
+        <v>-0.09357050837078901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02333754465806481</v>
+        <v>0.03253829102698114</v>
       </c>
       <c r="C38">
-        <v>-0.01714419505270161</v>
+        <v>-0.02824328266526391</v>
       </c>
       <c r="D38">
-        <v>0.01564762840522304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007555490577093687</v>
+      </c>
+      <c r="E38">
+        <v>-0.006969549736380951</v>
+      </c>
+      <c r="F38">
+        <v>-0.01773257920667263</v>
+      </c>
+      <c r="G38">
+        <v>-0.08732592680043484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.006595817208166712</v>
+        <v>0.03652942068842399</v>
       </c>
       <c r="C39">
-        <v>0.0007201372936697387</v>
+        <v>-0.07904889168569168</v>
       </c>
       <c r="D39">
-        <v>0.08944452459403331</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01253964812800292</v>
+      </c>
+      <c r="E39">
+        <v>-0.03196785003353441</v>
+      </c>
+      <c r="F39">
+        <v>0.01700232780398736</v>
+      </c>
+      <c r="G39">
+        <v>-0.09498034145047843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.02029226501145042</v>
+        <v>0.01382047476602279</v>
       </c>
       <c r="C40">
-        <v>0.002140272957050131</v>
+        <v>-0.03738901290615941</v>
       </c>
       <c r="D40">
-        <v>0.02740508273822217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01544957983166581</v>
+      </c>
+      <c r="E40">
+        <v>-0.03511665786582665</v>
+      </c>
+      <c r="F40">
+        <v>-0.01526461753602837</v>
+      </c>
+      <c r="G40">
+        <v>-0.1258868712564508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01100587813669145</v>
+        <v>0.02065175992604673</v>
       </c>
       <c r="C41">
-        <v>0.0005469010682133401</v>
+        <v>-0.003343679443807881</v>
       </c>
       <c r="D41">
-        <v>-0.00772428016812203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004933470648978222</v>
+      </c>
+      <c r="E41">
+        <v>-0.01015969822537667</v>
+      </c>
+      <c r="F41">
+        <v>-0.01554816589423875</v>
+      </c>
+      <c r="G41">
+        <v>-0.08937029729473484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.01833330276697859</v>
+        <v>0.005379551664486298</v>
       </c>
       <c r="C42">
-        <v>0.08418436690571578</v>
+        <v>-0.02389364017358287</v>
       </c>
       <c r="D42">
-        <v>0.05883213954794432</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08574098864436863</v>
+      </c>
+      <c r="E42">
+        <v>0.002411017308787652</v>
+      </c>
+      <c r="F42">
+        <v>-0.03713619765519607</v>
+      </c>
+      <c r="G42">
+        <v>0.0256014802686673</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01599178580649249</v>
+        <v>0.0355783015598481</v>
       </c>
       <c r="C43">
-        <v>-0.0007141911169749891</v>
+        <v>-0.0183292870263329</v>
       </c>
       <c r="D43">
-        <v>-0.003461509049974379</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006337464047045918</v>
+      </c>
+      <c r="E43">
+        <v>-0.02544713368613177</v>
+      </c>
+      <c r="F43">
+        <v>-0.01201063642855642</v>
+      </c>
+      <c r="G43">
+        <v>-0.1191669199761275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.007656086608501578</v>
+        <v>0.01300226850655026</v>
       </c>
       <c r="C44">
-        <v>-0.002896097282004977</v>
+        <v>-0.05661850589397348</v>
       </c>
       <c r="D44">
-        <v>0.04869153717235482</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.00774141391534282</v>
+      </c>
+      <c r="E44">
+        <v>-0.03231015207036032</v>
+      </c>
+      <c r="F44">
+        <v>-0.01551563493660508</v>
+      </c>
+      <c r="G44">
+        <v>-0.1146211005935448</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>9.312670020837559e-05</v>
+        <v>0.008838185034149924</v>
       </c>
       <c r="C46">
-        <v>0.01080821846516783</v>
+        <v>-0.01558224960026447</v>
       </c>
       <c r="D46">
-        <v>-0.002496008691809842</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01279965497857454</v>
+      </c>
+      <c r="E46">
+        <v>-7.576382990739298e-05</v>
+      </c>
+      <c r="F46">
+        <v>-0.01559701860690232</v>
+      </c>
+      <c r="G46">
+        <v>-0.1087529942247638</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.04566760324266005</v>
+        <v>0.07931582422967172</v>
       </c>
       <c r="C47">
-        <v>-0.02168954045559238</v>
+        <v>-0.07160301571167188</v>
       </c>
       <c r="D47">
-        <v>0.06010246501295596</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004893665073019445</v>
+      </c>
+      <c r="E47">
+        <v>0.0101860292103163</v>
+      </c>
+      <c r="F47">
+        <v>-0.04958248698434562</v>
+      </c>
+      <c r="G47">
+        <v>-0.08672597418014154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.003820799120046642</v>
+        <v>0.01956496576711427</v>
       </c>
       <c r="C48">
-        <v>-0.0001558744291855326</v>
+        <v>-0.01294712618053545</v>
       </c>
       <c r="D48">
-        <v>-0.0001420101549979002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002527559932651928</v>
+      </c>
+      <c r="E48">
+        <v>-0.005356606441861227</v>
+      </c>
+      <c r="F48">
+        <v>-0.02144342629199816</v>
+      </c>
+      <c r="G48">
+        <v>-0.102652292555684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.04877761893620318</v>
+        <v>0.07435506364496611</v>
       </c>
       <c r="C50">
-        <v>-0.02031221757209556</v>
+        <v>-0.07375155826723434</v>
       </c>
       <c r="D50">
-        <v>0.04740260336725263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002015005226372771</v>
+      </c>
+      <c r="E50">
+        <v>0.01127295083860552</v>
+      </c>
+      <c r="F50">
+        <v>-0.05161179522982576</v>
+      </c>
+      <c r="G50">
+        <v>-0.09789494380494833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006269003217627351</v>
+        <v>0.01223465886357486</v>
       </c>
       <c r="C51">
-        <v>0.002925540681806778</v>
+        <v>-0.03692186574342841</v>
       </c>
       <c r="D51">
-        <v>0.02421156884628894</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01157253320731613</v>
+      </c>
+      <c r="E51">
+        <v>-0.03377878893512022</v>
+      </c>
+      <c r="F51">
+        <v>0.01175062696990684</v>
+      </c>
+      <c r="G51">
+        <v>-0.1223215577087524</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.06756789193946013</v>
+        <v>0.08117708096864804</v>
       </c>
       <c r="C53">
-        <v>-0.02909192739024582</v>
+        <v>-0.08380636261499355</v>
       </c>
       <c r="D53">
-        <v>0.08405035903218738</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00364149560974174</v>
+      </c>
+      <c r="E53">
+        <v>0.03134831701964666</v>
+      </c>
+      <c r="F53">
+        <v>-0.05465571154328032</v>
+      </c>
+      <c r="G53">
+        <v>-0.09011544783098864</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0168229900436194</v>
+        <v>0.03250850879701458</v>
       </c>
       <c r="C54">
-        <v>-0.008310736214363394</v>
+        <v>-0.018595838392795</v>
       </c>
       <c r="D54">
-        <v>-0.002597025614694647</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0008307588674046451</v>
+      </c>
+      <c r="E54">
+        <v>-0.01916188689746036</v>
+      </c>
+      <c r="F54">
+        <v>-0.009522855983575221</v>
+      </c>
+      <c r="G54">
+        <v>-0.1102323114169403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.04371348475982437</v>
+        <v>0.07371719658463832</v>
       </c>
       <c r="C55">
-        <v>-0.02106036198807549</v>
+        <v>-0.06771649001023709</v>
       </c>
       <c r="D55">
-        <v>0.0643214925304785</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005290361494807749</v>
+      </c>
+      <c r="E55">
+        <v>0.03017530724314672</v>
+      </c>
+      <c r="F55">
+        <v>-0.05251397908081539</v>
+      </c>
+      <c r="G55">
+        <v>-0.06768887136937125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.100883976351687</v>
+        <v>0.1358767369228547</v>
       </c>
       <c r="C56">
-        <v>-0.04803138862328286</v>
+        <v>-0.106387162287997</v>
       </c>
       <c r="D56">
-        <v>0.1152286505534131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01286853984663687</v>
+      </c>
+      <c r="E56">
+        <v>0.03861957927212954</v>
+      </c>
+      <c r="F56">
+        <v>-0.06643306170308953</v>
+      </c>
+      <c r="G56">
+        <v>-0.04569672283843358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01343633867440781</v>
+        <v>0.003928433120329883</v>
       </c>
       <c r="C57">
-        <v>0.01733002873669249</v>
+        <v>-0.005228229276654727</v>
       </c>
       <c r="D57">
-        <v>0.0159045812653646</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02268276737506868</v>
+      </c>
+      <c r="E57">
+        <v>-0.02401991819546538</v>
+      </c>
+      <c r="F57">
+        <v>0.0007350989792539098</v>
+      </c>
+      <c r="G57">
+        <v>-0.01803670352194345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.02631195441955952</v>
+        <v>0.04378964777393102</v>
       </c>
       <c r="C58">
-        <v>-0.01520619274585818</v>
+        <v>-0.0370143904714841</v>
       </c>
       <c r="D58">
-        <v>0.09005677245748016</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02986192667998114</v>
+      </c>
+      <c r="E58">
+        <v>-0.8169359858283957</v>
+      </c>
+      <c r="F58">
+        <v>-0.477727246847527</v>
+      </c>
+      <c r="G58">
+        <v>0.2504686466431715</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1994170953610812</v>
+        <v>0.1601849957499056</v>
       </c>
       <c r="C59">
-        <v>-0.05089221550403626</v>
+        <v>0.2066305925995302</v>
       </c>
       <c r="D59">
-        <v>-0.1926505926939721</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01145200114109884</v>
+      </c>
+      <c r="E59">
+        <v>-0.022259896604685</v>
+      </c>
+      <c r="F59">
+        <v>-0.004281609574603878</v>
+      </c>
+      <c r="G59">
+        <v>-0.03480586919911104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3022228479228906</v>
+        <v>0.2870225577068429</v>
       </c>
       <c r="C60">
-        <v>-0.09261970676713634</v>
+        <v>-0.1150968966229663</v>
       </c>
       <c r="D60">
-        <v>0.1762220992794402</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01505843398378138</v>
+      </c>
+      <c r="E60">
+        <v>-0.08612776334974589</v>
+      </c>
+      <c r="F60">
+        <v>0.3225394044240561</v>
+      </c>
+      <c r="G60">
+        <v>0.1628998221736052</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.01377912942570461</v>
+        <v>0.03911014418963781</v>
       </c>
       <c r="C61">
-        <v>-0.006288221201722902</v>
+        <v>-0.064122400193226</v>
       </c>
       <c r="D61">
-        <v>0.06875983698947488</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006295081329707032</v>
+      </c>
+      <c r="E61">
+        <v>-0.03080415987544323</v>
+      </c>
+      <c r="F61">
+        <v>0.01048350951340506</v>
+      </c>
+      <c r="G61">
+        <v>-0.09958217179079612</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007540415920200681</v>
+        <v>0.01446072550927576</v>
       </c>
       <c r="C63">
-        <v>0.003564791134707068</v>
+        <v>-0.03032206675622674</v>
       </c>
       <c r="D63">
-        <v>0.02537971677666575</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008910864308125089</v>
+      </c>
+      <c r="E63">
+        <v>-0.005613788178183038</v>
+      </c>
+      <c r="F63">
+        <v>-0.01520047584658103</v>
+      </c>
+      <c r="G63">
+        <v>-0.09463487803444748</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.03394095479064213</v>
+        <v>0.04983709497944582</v>
       </c>
       <c r="C64">
-        <v>-0.008584626236749658</v>
+        <v>-0.04620552483505732</v>
       </c>
       <c r="D64">
-        <v>0.03919853156171312</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006072209179112973</v>
+      </c>
+      <c r="E64">
+        <v>-0.005352066717769334</v>
+      </c>
+      <c r="F64">
+        <v>0.006185689068977081</v>
+      </c>
+      <c r="G64">
+        <v>-0.098846890518077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.05846046504846823</v>
+        <v>0.07364331067033186</v>
       </c>
       <c r="C65">
-        <v>-0.008834706713618039</v>
+        <v>-0.06066649267062216</v>
       </c>
       <c r="D65">
-        <v>0.09453552822265367</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01764393123220545</v>
+      </c>
+      <c r="E65">
+        <v>-0.04826795651405263</v>
+      </c>
+      <c r="F65">
+        <v>0.0115602698606421</v>
+      </c>
+      <c r="G65">
+        <v>-0.04042645891108548</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.01768766111660088</v>
+        <v>0.04825607318763454</v>
       </c>
       <c r="C66">
-        <v>-0.006220626862115262</v>
+        <v>-0.1065084125950374</v>
       </c>
       <c r="D66">
-        <v>0.1292083091295725</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01320318292863432</v>
+      </c>
+      <c r="E66">
+        <v>-0.05211120923593583</v>
+      </c>
+      <c r="F66">
+        <v>0.02524067454476346</v>
+      </c>
+      <c r="G66">
+        <v>-0.1042603566852901</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04964187607689483</v>
+        <v>0.05584171615230041</v>
       </c>
       <c r="C67">
-        <v>-0.02312213092251985</v>
+        <v>-0.03348274159619928</v>
       </c>
       <c r="D67">
-        <v>0.02850602390874884</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006194873859607793</v>
+      </c>
+      <c r="E67">
+        <v>0.003971950781860746</v>
+      </c>
+      <c r="F67">
+        <v>-0.01356082357055509</v>
+      </c>
+      <c r="G67">
+        <v>-0.07419630390961005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1903305052582048</v>
+        <v>0.15896118391851</v>
       </c>
       <c r="C68">
-        <v>-0.02383756732753368</v>
+        <v>0.2707385726850678</v>
       </c>
       <c r="D68">
-        <v>-0.2441771383892723</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.004332404768852637</v>
+      </c>
+      <c r="E68">
+        <v>0.001708942521465617</v>
+      </c>
+      <c r="F68">
+        <v>-0.04393402100377703</v>
+      </c>
+      <c r="G68">
+        <v>-0.01974018885719463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0498407940314539</v>
+        <v>0.08173593135147815</v>
       </c>
       <c r="C69">
-        <v>-0.0263316373543359</v>
+        <v>-0.07476756113204505</v>
       </c>
       <c r="D69">
-        <v>0.05345267499124071</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00886535537874595</v>
+      </c>
+      <c r="E69">
+        <v>0.02385995562556101</v>
+      </c>
+      <c r="F69">
+        <v>-0.03057735796694217</v>
+      </c>
+      <c r="G69">
+        <v>-0.09929837218970551</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1704952949759485</v>
+        <v>0.1453568216327555</v>
       </c>
       <c r="C71">
-        <v>-0.03264508312363779</v>
+        <v>0.2300836142978542</v>
       </c>
       <c r="D71">
-        <v>-0.1918837815333935</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003545306995841364</v>
+      </c>
+      <c r="E71">
+        <v>-0.03014153677898192</v>
+      </c>
+      <c r="F71">
+        <v>-0.02655494473446938</v>
+      </c>
+      <c r="G71">
+        <v>-0.06490436413193022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.05248906994084254</v>
+        <v>0.08673813655559663</v>
       </c>
       <c r="C72">
-        <v>-0.03075037473949514</v>
+        <v>-0.06956980167341688</v>
       </c>
       <c r="D72">
-        <v>0.07731471297776757</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00847044125281032</v>
+      </c>
+      <c r="E72">
+        <v>0.00532642128741585</v>
+      </c>
+      <c r="F72">
+        <v>0.03409437851859329</v>
+      </c>
+      <c r="G72">
+        <v>-0.09119058500086941</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3742372005867563</v>
+        <v>0.3709620830647634</v>
       </c>
       <c r="C73">
-        <v>-0.1128088868172448</v>
+        <v>-0.122484712256587</v>
       </c>
       <c r="D73">
-        <v>0.2529946822913838</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0270153390878839</v>
+      </c>
+      <c r="E73">
+        <v>-0.2116352052681563</v>
+      </c>
+      <c r="F73">
+        <v>0.5497488323421995</v>
+      </c>
+      <c r="G73">
+        <v>0.3095530128571292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08996131350393576</v>
+        <v>0.1043328282921446</v>
       </c>
       <c r="C74">
-        <v>-0.04516371115046026</v>
+        <v>-0.1101762612901865</v>
       </c>
       <c r="D74">
-        <v>0.1265127121347283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009370914485863009</v>
+      </c>
+      <c r="E74">
+        <v>0.01416710396663241</v>
+      </c>
+      <c r="F74">
+        <v>-0.06002649630229614</v>
+      </c>
+      <c r="G74">
+        <v>-0.07443777757355238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1951852806125748</v>
+        <v>0.2466318202196801</v>
       </c>
       <c r="C75">
-        <v>-0.09103100281789911</v>
+        <v>-0.1521446170216325</v>
       </c>
       <c r="D75">
-        <v>0.1904739291633012</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03186804995168287</v>
+      </c>
+      <c r="E75">
+        <v>0.09809725973569078</v>
+      </c>
+      <c r="F75">
+        <v>-0.1479283580116099</v>
+      </c>
+      <c r="G75">
+        <v>0.01037132850063599</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.0916919389688744</v>
+        <v>0.1150789597546714</v>
       </c>
       <c r="C76">
-        <v>-0.0520358898917585</v>
+        <v>-0.11181873843167</v>
       </c>
       <c r="D76">
-        <v>0.1320005357268622</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01765263997852681</v>
+      </c>
+      <c r="E76">
+        <v>0.04177175274425098</v>
+      </c>
+      <c r="F76">
+        <v>-0.08680017175143295</v>
+      </c>
+      <c r="G76">
+        <v>-0.05583411486049498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.03696788121313299</v>
+        <v>0.07141695597925547</v>
       </c>
       <c r="C77">
-        <v>-0.007919437914171861</v>
+        <v>-0.05672761495238764</v>
       </c>
       <c r="D77">
-        <v>0.06756804377807846</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01066231193981501</v>
+      </c>
+      <c r="E77">
+        <v>-0.05293552826567516</v>
+      </c>
+      <c r="F77">
+        <v>-0.00269399222964332</v>
+      </c>
+      <c r="G77">
+        <v>-0.07136617114459043</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0307119678749843</v>
+        <v>0.04167042989641563</v>
       </c>
       <c r="C78">
-        <v>-0.01033857077832651</v>
+        <v>-0.05282241961282266</v>
       </c>
       <c r="D78">
-        <v>0.06223119227707283</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.007458822628242281</v>
+      </c>
+      <c r="E78">
+        <v>-0.04138781505279684</v>
+      </c>
+      <c r="F78">
+        <v>0.02973826412815997</v>
+      </c>
+      <c r="G78">
+        <v>-0.1039557058303762</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.00118018946195831</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0006150962944929558</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0005295599421009862</v>
+      </c>
+      <c r="E79">
+        <v>-0.005768394017870042</v>
+      </c>
+      <c r="F79">
+        <v>-9.32233002260438e-05</v>
+      </c>
+      <c r="G79">
+        <v>-0.003685707531978126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04596788387479718</v>
+        <v>0.04181123675562366</v>
       </c>
       <c r="C80">
-        <v>-0.00754414341075299</v>
+        <v>-0.05239241472306781</v>
       </c>
       <c r="D80">
-        <v>0.06722431402928208</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01420161921415116</v>
+      </c>
+      <c r="E80">
+        <v>-0.0321939666881016</v>
+      </c>
+      <c r="F80">
+        <v>-0.0006210903832294487</v>
+      </c>
+      <c r="G80">
+        <v>-0.05036250050894668</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.09929363313779098</v>
+        <v>0.1380143364093874</v>
       </c>
       <c r="C81">
-        <v>-0.04731015396382945</v>
+        <v>-0.09703896545475751</v>
       </c>
       <c r="D81">
-        <v>0.1097224723387077</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01566583317965553</v>
+      </c>
+      <c r="E81">
+        <v>0.05950297269654099</v>
+      </c>
+      <c r="F81">
+        <v>-0.1146049461762539</v>
+      </c>
+      <c r="G81">
+        <v>-0.02591342742747374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.02120238074722223</v>
+        <v>0.147913046556881</v>
       </c>
       <c r="C82">
-        <v>-0.008046226367717636</v>
+        <v>-0.08699662229974246</v>
       </c>
       <c r="D82">
-        <v>0.0199980525811593</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01324946322583627</v>
+      </c>
+      <c r="E82">
+        <v>0.1283232317148208</v>
+      </c>
+      <c r="F82">
+        <v>-0.04294765829255654</v>
+      </c>
+      <c r="G82">
+        <v>-0.05861941649726553</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01991891372566649</v>
+        <v>0.03360807195142317</v>
       </c>
       <c r="C83">
-        <v>-0.003298343315621226</v>
+        <v>-0.0320212761988699</v>
       </c>
       <c r="D83">
-        <v>0.01989917432528274</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006815993136302215</v>
+      </c>
+      <c r="E83">
+        <v>-0.03409591349301148</v>
+      </c>
+      <c r="F83">
+        <v>0.02980058323983419</v>
+      </c>
+      <c r="G83">
+        <v>-0.05942868757877746</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1894430378267712</v>
+        <v>0.2081112360740185</v>
       </c>
       <c r="C85">
-        <v>-0.07736505469950873</v>
+        <v>-0.1463824311931518</v>
       </c>
       <c r="D85">
-        <v>0.2003941060912295</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01742296359382819</v>
+      </c>
+      <c r="E85">
+        <v>0.113328484097463</v>
+      </c>
+      <c r="F85">
+        <v>-0.0834206503649341</v>
+      </c>
+      <c r="G85">
+        <v>0.04843716426612815</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01514395149922588</v>
+        <v>0.01339425418568913</v>
       </c>
       <c r="C86">
-        <v>-0.0002803491706833867</v>
+        <v>-0.02825146063602234</v>
       </c>
       <c r="D86">
-        <v>0.01968873909701616</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01282538331878359</v>
+      </c>
+      <c r="E86">
+        <v>-0.06435786637792801</v>
+      </c>
+      <c r="F86">
+        <v>0.02249085476115303</v>
+      </c>
+      <c r="G86">
+        <v>-0.1832219389768221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.003662841163324318</v>
+        <v>0.02143021285912063</v>
       </c>
       <c r="C87">
-        <v>0.007883917736597083</v>
+        <v>-0.01662768511269713</v>
       </c>
       <c r="D87">
-        <v>0.02614051294875448</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01319087410377467</v>
+      </c>
+      <c r="E87">
+        <v>-0.1002253000745449</v>
+      </c>
+      <c r="F87">
+        <v>-0.01680529010987046</v>
+      </c>
+      <c r="G87">
+        <v>-0.1226286079918259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06410521189360416</v>
+        <v>0.09120089275882855</v>
       </c>
       <c r="C88">
-        <v>0.0002788445274675044</v>
+        <v>-0.07211023074150363</v>
       </c>
       <c r="D88">
-        <v>0.05848496941201437</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02256182595073514</v>
+      </c>
+      <c r="E88">
+        <v>0.003395994120006213</v>
+      </c>
+      <c r="F88">
+        <v>-0.02358103434336918</v>
+      </c>
+      <c r="G88">
+        <v>-0.09928748251471781</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2933909000488142</v>
+        <v>0.2344826596356283</v>
       </c>
       <c r="C89">
-        <v>-0.05079536375290108</v>
+        <v>0.3644564585778742</v>
       </c>
       <c r="D89">
-        <v>-0.3237221796440827</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0004527027798357854</v>
+      </c>
+      <c r="E89">
+        <v>0.02631735166809873</v>
+      </c>
+      <c r="F89">
+        <v>-0.0193697323424243</v>
+      </c>
+      <c r="G89">
+        <v>-0.07702682796469107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2476072050877866</v>
+        <v>0.2122262546352178</v>
       </c>
       <c r="C90">
-        <v>-0.04563962362324653</v>
+        <v>0.314987392829808</v>
       </c>
       <c r="D90">
-        <v>-0.2838371155462073</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.005025324593315243</v>
+      </c>
+      <c r="E90">
+        <v>0.006970590808900438</v>
+      </c>
+      <c r="F90">
+        <v>-0.04529340629970098</v>
+      </c>
+      <c r="G90">
+        <v>-0.04924611262418838</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1513477247326561</v>
+        <v>0.1847837035676524</v>
       </c>
       <c r="C91">
-        <v>-0.07216955171153303</v>
+        <v>-0.1378453252132882</v>
       </c>
       <c r="D91">
-        <v>0.1379588739177962</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02313671934278644</v>
+      </c>
+      <c r="E91">
+        <v>0.08327351707756157</v>
+      </c>
+      <c r="F91">
+        <v>-0.1157373337686494</v>
+      </c>
+      <c r="G91">
+        <v>-0.03070646519577305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2235835520511877</v>
+        <v>0.1996853026975206</v>
       </c>
       <c r="C92">
-        <v>-0.07812686447691451</v>
+        <v>0.258691568183072</v>
       </c>
       <c r="D92">
-        <v>-0.2271660663835628</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03904312047969279</v>
+      </c>
+      <c r="E92">
+        <v>-0.02144911356633592</v>
+      </c>
+      <c r="F92">
+        <v>-0.05801322074990414</v>
+      </c>
+      <c r="G92">
+        <v>-0.09403206497409956</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.266656313876568</v>
+        <v>0.2349688661725857</v>
       </c>
       <c r="C93">
-        <v>-0.05872370339434588</v>
+        <v>0.3094276629614769</v>
       </c>
       <c r="D93">
-        <v>-0.2639148611133929</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01123203092308462</v>
+      </c>
+      <c r="E93">
+        <v>-0.004160652555139169</v>
+      </c>
+      <c r="F93">
+        <v>-0.03730152724095508</v>
+      </c>
+      <c r="G93">
+        <v>-0.06123548288094048</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2157988656985242</v>
+        <v>0.3209049863440669</v>
       </c>
       <c r="C94">
-        <v>-0.07745746938801633</v>
+        <v>-0.1919396104635404</v>
       </c>
       <c r="D94">
-        <v>0.2094014184174883</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02480564149483767</v>
+      </c>
+      <c r="E94">
+        <v>0.3324305375779829</v>
+      </c>
+      <c r="F94">
+        <v>-0.4264051801627715</v>
+      </c>
+      <c r="G94">
+        <v>0.3939260363231267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.07017187187259459</v>
+        <v>0.09599756800323182</v>
       </c>
       <c r="C95">
-        <v>-0.03985541672878168</v>
+        <v>-0.08355866782584714</v>
       </c>
       <c r="D95">
-        <v>0.1413650033632942</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009313391649042237</v>
+      </c>
+      <c r="E95">
+        <v>-0.09991569026861058</v>
+      </c>
+      <c r="F95">
+        <v>0.1627758104753273</v>
+      </c>
+      <c r="G95">
+        <v>-0.004737516357754671</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1793908708324762</v>
+        <v>0.1893586022960415</v>
       </c>
       <c r="C98">
-        <v>-0.07653544241890231</v>
+        <v>-0.04793786346423461</v>
       </c>
       <c r="D98">
-        <v>0.08955335302854416</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01015834732889479</v>
+      </c>
+      <c r="E98">
+        <v>-0.1249007687732291</v>
+      </c>
+      <c r="F98">
+        <v>0.2136192138235202</v>
+      </c>
+      <c r="G98">
+        <v>0.02950319835860408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008732232193748343</v>
+        <v>0.009242367681924678</v>
       </c>
       <c r="C101">
-        <v>0.003016966628621803</v>
+        <v>-0.02291550848680293</v>
       </c>
       <c r="D101">
-        <v>0.01622656944683956</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009446214223224114</v>
+      </c>
+      <c r="E101">
+        <v>-0.005318502075087998</v>
+      </c>
+      <c r="F101">
+        <v>-0.01301780892544581</v>
+      </c>
+      <c r="G101">
+        <v>-0.1025894686824682</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.100151112356107</v>
+        <v>0.1170472710201032</v>
       </c>
       <c r="C102">
-        <v>-0.03267967447812606</v>
+        <v>-0.08492476332045766</v>
       </c>
       <c r="D102">
-        <v>0.1001002614749854</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0005445478239957838</v>
+      </c>
+      <c r="E102">
+        <v>0.04113832070309238</v>
+      </c>
+      <c r="F102">
+        <v>-0.02633042560156257</v>
+      </c>
+      <c r="G102">
+        <v>-0.01643193314635375</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.2827426946337849</v>
+        <v>0.02118362956645237</v>
       </c>
       <c r="C104">
-        <v>0.9481956075068069</v>
+        <v>0.03078740604101471</v>
       </c>
       <c r="D104">
-        <v>0.05932008965997927</v>
+        <v>-0.9870148341755181</v>
+      </c>
+      <c r="E104">
+        <v>0.07112264613779519</v>
+      </c>
+      <c r="F104">
+        <v>-0.02667446840597127</v>
+      </c>
+      <c r="G104">
+        <v>0.03995261771047477</v>
       </c>
     </row>
   </sheetData>
